--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/pt_BR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/pt_BR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5996">
   <si>
     <t>translation_group</t>
   </si>
@@ -10112,7 +10112,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Preencha os campos para obter o máximo de resultados quando encontrar seu site em mecanismos de busca.</t>
+    <t>Preencha os campos para obter resultados máximos ao encontrar seu site nos mecanismos de pesquisa.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17082,24 +17082,27 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Use o Microweber para construir o seu site, loja ou blog.</t>
+    <t>Use o Microweber para criar seu site, loja online ou blog.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Criar e editar conteúdo, vender on-line, gerenciar pedidos e clientes.</t>
+    <t>Crie e edite conteúdo, venda online, gerencie pedidos e clientes.</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>Excluir</t>
+    <t>Retirar</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>carrinhos abandonados</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -17121,25 +17124,25 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Se você permitir vários modelos, será possível usar modelos diferentes quando criar novas páginas.</t>
+    <t>Se você permitir vários modelos, poderá usar modelos diferentes ao criar novas páginas.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Configurações de email do sistema</t>
+    <t>Configurações do site de e-mail do sistema</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Entregar mensagens relacionadas com novos registros, redefinições de senha e outras funcionalidades do sistema.</t>
+    <t>Entregar mensagens relacionadas a novos cadastros, redefinições de senha e outras funcionalidades do sistema.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>De endereço de e-mail</t>
+    <t>Do endereço de email</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
@@ -17157,25 +17160,25 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Configure o seu provedor de e-mail.</t>
+    <t>Configure seu provedor de e-mail.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>O provedor de e-mail geral irá entregar todas as mensagens relacionadas ao site. Incluindo mensagens de sistema e mensagens de formulário de contato.</t>
+    <t>O provedor de e-mail geral entregará todas as mensagens relacionadas ao site. Incluindo mensagens do sistema e mensagens de formulário de contato.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logotipo do site</t>
+    <t>logotipo do site</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Selecione um logotipo para o seu site</t>
+    <t>Selecione um logotipo para o seu site.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17187,13 +17190,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Favicon do Site</t>
+    <t>Favicon do site</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Alterando idioma padrão..</t>
+    <t>Mudando o idioma padrão..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17205,37 +17208,37 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Instalar Módulo Multiidioma</t>
+    <t>Instalar módulo multilíngue</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Os usuários podem se registrar com e-mails temporários como - Mailinator, MailDrop, Guerrilla... s</t>
+    <t>Os usuários podem se registrar com e-mails temporários como - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registrar usuários podem receber automaticamente um e-mail automático de você. Veja as configurações e envie suas mensagens.</t>
+    <t>Os usuários registrados podem receber automaticamente um e-mail automático seu. Veja as configurações e poste suas mensagens.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Enviar email em um novo registro de usuário para usuários admin</t>
+    <t>Enviar e-mail no registro de novo usuário para usuários administradores</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Você deseja que os administradores recebam um e-mail quando o novo usuário for registrado?</t>
+    <t>Deseja que os administradores recebam um e-mail quando um novo usuário for registrado?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber é de código aberto gratuito para arrastar e soltar o construtor de sites e o CMS. Está sob licença MIT, e nós usamos o framework Laravel PHP</t>
+    <t>O Microweber é um construtor de sites de arrastar e soltar de código aberto gratuito e CMS. Está sob licença do MIT e usamos o framework Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17247,19 +17250,19 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Enviar para o endereço</t>
+    <t>Envio para o endereço</t>
   </si>
   <si>
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Retirada do endereço</t>
+    <t>Retirada no endereço</t>
   </si>
   <si>
     <t>Global settings</t>
   </si>
   <si>
-    <t>Configurações Globais</t>
+    <t>Configurações globais</t>
   </si>
   <si>
     <t>E-mail Integrations</t>
@@ -17271,13 +17274,13 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Você não tem o e-mail do sistema e a configuração smtp.</t>
+    <t>Você não tem configuração de e-mail e smtp do sistema.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Configure suas configurações de sistema aqui.</t>
+    <t>Defina as configurações do sistema aqui.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17289,49 +17292,49 @@
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Opções de envio</t>
+    <t>Opções de envio de e-mail</t>
   </si>
   <si>
     <t>Global sender</t>
   </si>
   <si>
-    <t>Remetente global</t>
+    <t>remetente global</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Usar configurações personalizadas do remetente</t>
+    <t>Usar configurações de remetente personalizadas</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Use configurações personalizadas do remetente para os formulários de contato globais.</t>
+    <t>Use configurações de remetente personalizadas para os formulários de contato globais.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Por padrão usaremos as configurações de e-mail do sistema de site.</t>
+    <t>Por padrão, usaremos as configurações de e-mail do sistema do site.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Aqui você pode alterar as configurações de e-mail do sistema.</t>
+    <t>Você pode alterar as configurações de e-mail do sistema aqui.</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>Receptores Globais</t>
+    <t>Receptores globais</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Enviar dados de formulário de contato para os receptores globais quando forem enviados</t>
+    <t>Enviar dados de formulários de contato para destinatários globais quando enviados</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17343,19 +17346,19 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Endereço de e-mail dos receptores separado com coma.</t>
+    <t>Endereço de e-mail dos destinatários separados por vírgula.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Contate seu provedor de hospedagem para habilitar a extensão SOAP do PHP.</t>
+    <t>Entre em contato com seu provedor de hospedagem para habilitar a extensão PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
   </si>
   <si>
-    <t>Elementos</t>
+    <t>elementos</t>
   </si>
   <si>
     <t>2 months ago</t>
@@ -17397,13 +17400,13 @@
     <t>Timeline</t>
   </si>
   <si>
-    <t>Cronograma</t>
+    <t>Linha do tempo</t>
   </si>
   <si>
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Etiqueta branca WHMCS</t>
+    <t>Marca Branca WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
@@ -17415,6 +17418,9 @@
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>O modelo do módulo mudou</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17424,25 +17430,22 @@
     <t>Clear Cache</t>
   </si>
   <si>
-    <t>Limpar Cache</t>
-  </si>
-  <si>
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Elementos e layouts padrão</t>
+    <t>Layouts e elementos padrão</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Lista de Flechas</t>
+    <t>Lista de Setas</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Lista selecionada</t>
+    <t>lista verificada</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17460,7 +17463,7 @@
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>Ícone com texto</t>
+    <t>ícone com texto</t>
   </si>
   <si>
     <t>Two Text Columns</t>
@@ -17493,24 +17496,27 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Habilitar comentários</t>
+    <t>Ativar comentários</t>
   </si>
   <si>
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Configurações do captcha</t>
+    <t>Configurações de Captcha</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Configurar suas preferências do captcha </t>
+    <t xml:space="preserve">Configure suas preferências de captcha em </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Adicionar/Editar campos do formulário usando os campos personalizados</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17520,10 +17526,13 @@
     <t>Contact form name</t>
   </si>
   <si>
+    <t>Nome do formulário de contato</t>
+  </si>
+  <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Qual é o nome deste formulário de contato?</t>
+    <t>Qual é o nome desse formulário de contato?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17535,19 +17544,19 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Enviar dados do formulário de contato para os destinatários personalizados quando enviados</t>
+    <t>Enviar dados de formulário de contato para destinatários personalizados quando enviados</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Use configurações personalizadas de receptores para o formulário de contato atual.</t>
+    <t>Use configurações de destinatários personalizados para o formulário de contato atual.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Por padrão nós usaremos as configurações globais do formulário de contato.</t>
+    <t>Por padrão, usaremos as configurações globais do formulário de contato.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17559,103 +17568,103 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Responder mensagem automaticamente ao usuário</t>
+    <t>Mensagem de resposta automática ao usuário</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Ativar resposta automática de mensagem ao usuário</t>
+    <t>Ativar mensagem de resposta automática ao usuário</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Permitir que os usuários recebam "Obrigado e-mails após a assinatura".</t>
+    <t>Permitir que os usuários recebam "e-mails de agradecimento após a assinatura".</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Responder assunto automaticamente</t>
+    <t>Assunto de resposta automática</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>A resposta automática permite que você configure respostas automatizadas para o email recebido</t>
+    <t>Os respondedores automáticos permitem que você configure respostas automáticas para e-mails recebidos</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Responder mensagem automaticamente</t>
+    <t>Mensagem de resposta automática</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>E-mail de resposta automática enviado para o usuário</t>
+    <t>E-mail de resposta automática enviado de volta ao usuário</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Responder automaticamente ao remetente personalizado</t>
+    <t>Remetente personalizado de resposta automática</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Use configurações personalizadas do remetente para o formulário de contato atual.</t>
+    <t>Use configurações de remetente personalizadas para o formulário de contato atual.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Resposta automática do endereço de e-mail</t>
+    <t>Resposta automática a partir do endereço de e-mail</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Resposta automática do nome</t>
+    <t>Resposta automática a partir do nome</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Responda automaticamente ao e-mail</t>
+    <t>Responder automaticamente ao e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Quando o usuário receber a mensagem de resposta automática, ele poderá responder de volta para responder ao e-mail.</t>
+    <t>Quando o usuário recebe a mensagem de resposta automática, ele pode responder ao e-mail.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Responder anexos de e-mail automaticamente</t>
+    <t>Responder automaticamente anexos de e-mail</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Se você quiser anexar imagens de ovos, você deve enviá-las para a galeria de 'Adicionar mídia'</t>
+    <t>Se você deseja anexar imagens, você deve enviá-las para a galeria em 'Adicionar mídia'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Você ainda não tem nenhuma publicação</t>
+    <t>Você ainda não tem postagens</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Crie a sua primeira publicação agora.</t>
+    <t>Crie sua primeira postagem agora mesmo.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17676,9 +17685,9 @@
   </si>
   <si>
     <t>Como escrever descrições de produtos que vendem
-                                                    Uma das melhores coisas que você pode fazer para fazer sua loja com sucesso é investir algum tempo na escrita de excelentes descrições de produtos. Você quer fornecer informações detalhadas, mas concisas, que atrairão potenciais clientes a comprar.
+                                                    Uma das melhores coisas que você pode fazer para tornar sua loja bem-sucedida é investir algum tempo escrevendo ótimas descrições de produtos. Você deseja fornecer informações detalhadas, mas concisas, que atrairão clientes em potencial para comprar.
                                                     Pense como um consumidor
-                                                    Pense no que você como consumidor gostaria de saber então inclua essas funcionalidades na sua descrição. Para roupas: materiais e encaixes. Para a alimentação: ingredientes e como era preparada. Balas são seus amigos ao listar
+                                                    Pense no que você, como consumidor, gostaria de saber e inclua esses recursos em sua descrição. Para roupas: materiais e ajuste. Para comida: ingredientes e como foi preparada. Marcadores são seus amigos ao listar
                                                    recursos — tente
                                                             limitar cada um a 5-8 palavras.</t>
   </si>
@@ -17689,343 +17698,283 @@
     <t>Idioma do administrador</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Adicionar postagem</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Adicionar subpágina</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Categoria deletada</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Conteúdo deletado</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Pesquisar categorias</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Criar conteúdo</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cartão</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Limite</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Tem certeza que deseja excluir?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Você não tem nenhum produto em</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>De volta a</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Os campos personalizados são salvos</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Campos existentes</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Escolha entre os campos existentes abaixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adicionar novos campos</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Adicionar novo campo personalizado da lista abaixo</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Seus campos</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista de seus campos personalizados adicionados</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirecionamento do navegador</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integração</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Ferramenta Importar Exportar</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Atualizador independente</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>pacote de visualização</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Demonstração</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Usar</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Atual</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Expressar</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Primeira classe</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Clique e Colete</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Plano de fundo do vídeo</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Multi Idiomas</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Você pode ativar o módulo multilíngue para usar vários idiomas</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modo multilíngue</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Ative o modo multilíngue para ter vários idiomas para o seu conteúdo.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>As traduções são importadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduções não encontradas no banco de dados. Deseja importar traduções? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Seu carrinho está vazio.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor de código</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Blogue</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>títulos</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Títulos 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Títulos 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Títulos 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Títulos 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Títulos 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Títulos 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Títulos 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Títulos 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>bloco de texto</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Bloco de texto 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Bloco de texto 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Bloco de texto 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Bloco de texto 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Bloco de texto 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Bloco de texto 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Bloco de texto 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Bloco de texto 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Bloco de texto 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Bloco de texto 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Bloco de texto 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Bloco de texto 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Bloco de texto 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Bloco de texto 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Bloco de texto 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>recursos</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Recursos 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Recursos 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Recursos 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Recursos 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>grades</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>cardápio</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>rodapés</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Rodapés 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Rodapés 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Rodapés 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Rodapés 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>outro</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>preços</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Preço 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Layouts padrão</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Nenhum conteúdo aqui</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Os campos personalizados são salvos</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Campos existentes</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Escolha entre seus campos existentes abaixo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adicionar novos campos</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Adicionar novo campo personalizado da lista abaixo</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Seus campos</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista de seus campos personalizados adicionados</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>nova importação</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">repetir verticalmente </t>
+    <t xml:space="preserve">repita verticalmente </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -18068,501 +18017,6 @@
   </si>
   <si>
     <t>Recarregando estilos</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Links para</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pacote de visualização</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Demonstração</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Usar</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Atual</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Reordenar</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistema</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Redirecionamento do navegador</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integração</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Atualizador autônomo</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Você precisa da chave de licença para instalar este pacote</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Este pacote é premium e você deve ter uma chave de licença para instalá-lo</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Você precisa da chave de licença</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licença ativada</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Recarregando página</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licença não ativada</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Atualizações do sistema</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Verifique se há atualizações do sistema</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>De volta à lista</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>A categoria deve ter um nome</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>A categoria está oculta?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Se você definir isso como SIM, esta categoria será ocultada do site</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Menção</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Seu carrinho está vazio.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultados encontrados</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Se você escolher o Percentual no campo de seleção, ele será calculado automaticamente a partir do Preço e do preço de oferta do produto.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Fazer o check-out</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Exibindo</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultados)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Título da página - Trilha de pão direita</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Título da página - Trilha de pão esquerda</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Termos de uso</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Entrega e devoluções</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Informação de envio</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Cerca de 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Cerca de 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Cerca de 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Início 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Casa 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Você deve clicar no botão aplicar modelo para alterar seu modelo</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Pesquisar por critérios</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Código do pedido</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Data de</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Definir os pedidos a partir da data</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Data para</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Defina os pedidos até a data</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Valor do pedido de</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Mostrar o pedido com valor mínimo</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Valor do pedido para</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Mostrar o pedido com valor máximo</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Pesquise por produtos...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Pesquisar por produtos</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status do pagamento</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Pesquisa gratuita por telefone, nome, email etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Enviar este critério</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Redefinir filtro</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportar tudo</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Selecionar classificação</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Data do pedido</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Novo &gt; Antigo]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Antigo &gt; Novo]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Alto &gt; Baixo]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Baixo &gt; Alto]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Encomenda completa</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>traduções do módulo multilínguas foram encontradas em seu banco de dados.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Aviso! Alterar o idioma padrão pode interromper as traduções em seu site.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Tem certeza de que deseja continuar?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Aviso! A mudança de idioma padrão pode quebrar seu site.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Detalhes de envio</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>o pedido ainda não foi finalizado</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>o pedido está concluído</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Criado em</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olhada rápida </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Substituir valores de idioma</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>As traduções são importadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traduções não encontradas no banco de dados. Deseja importar traduções? </t>
   </si>
 </sst>
 </file>
@@ -18898,7 +18352,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69288,7 +68742,7 @@
         <v>5692</v>
       </c>
       <c r="D2964" t="s">
-        <v>1383</v>
+        <v>5693</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69302,10 +68756,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="D2965" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69319,10 +68773,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="D2966" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69336,10 +68790,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5697</v>
+        <v>5698</v>
       </c>
       <c r="D2967" t="s">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69353,10 +68807,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="D2968" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69370,10 +68824,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="D2969" t="s">
-        <v>5702</v>
+        <v>5703</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69387,10 +68841,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="D2970" t="s">
-        <v>5704</v>
+        <v>5705</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69404,10 +68858,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5705</v>
+        <v>5706</v>
       </c>
       <c r="D2971" t="s">
-        <v>5706</v>
+        <v>5707</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69421,10 +68875,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5707</v>
+        <v>5708</v>
       </c>
       <c r="D2972" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69438,10 +68892,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5709</v>
+        <v>5710</v>
       </c>
       <c r="D2973" t="s">
-        <v>5710</v>
+        <v>5711</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69455,10 +68909,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="D2974" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69472,10 +68926,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="D2975" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69489,10 +68943,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="D2976" t="s">
-        <v>5716</v>
+        <v>5717</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69506,10 +68960,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5717</v>
+        <v>5718</v>
       </c>
       <c r="D2977" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69523,10 +68977,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="D2978" t="s">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69540,10 +68994,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="D2979" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69557,10 +69011,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="D2980" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69574,10 +69028,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="D2981" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69591,10 +69045,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="D2982" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69608,10 +69062,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="D2983" t="s">
-        <v>5730</v>
+        <v>5731</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69625,10 +69079,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="D2984" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69642,10 +69096,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="D2985" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69659,10 +69113,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="D2986" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69676,10 +69130,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="D2987" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69693,10 +69147,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D2988" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69710,10 +69164,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="D2989" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69727,10 +69181,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="D2990" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69744,10 +69198,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="D2991" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69761,10 +69215,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="D2992" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69778,10 +69232,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="D2993" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69795,10 +69249,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="D2994" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69812,10 +69266,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="D2995" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69829,10 +69283,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="D2996" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69846,10 +69300,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="D2997" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69863,10 +69317,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="D2998" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69880,10 +69334,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="D2999" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69897,10 +69351,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D3000" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69914,10 +69368,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="D3001" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69931,10 +69385,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="D3002" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69948,10 +69402,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="D3003" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69965,10 +69419,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D3004" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69982,10 +69436,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D3005" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69999,10 +69453,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D3006" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70016,10 +69470,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D3007" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70033,10 +69487,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="D3008" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70050,10 +69504,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="D3009" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70067,10 +69521,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="D3010" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70084,10 +69538,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="D3011" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70101,10 +69555,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3012" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70118,10 +69572,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3013" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70135,10 +69589,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D3014" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70152,10 +69606,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="D3015" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70169,10 +69623,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="D3016" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70186,10 +69640,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3017" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70203,10 +69657,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D3018" t="s">
-        <v>2878</v>
+        <v>5799</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70220,10 +69674,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5798</v>
+        <v>5800</v>
       </c>
       <c r="D3019" t="s">
-        <v>5799</v>
+        <v>5801</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70237,10 +69691,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5800</v>
+        <v>5802</v>
       </c>
       <c r="D3020" t="s">
-        <v>5801</v>
+        <v>1556</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70254,10 +69708,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3021" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70271,10 +69725,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3022" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70288,10 +69742,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3023" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70305,10 +69759,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3024" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70322,10 +69776,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3025" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70339,10 +69793,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3026" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70356,10 +69810,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D3027" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70373,10 +69827,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D3028" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70390,10 +69844,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="D3029" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70407,10 +69861,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="D3030" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70424,7 +69878,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3031" t="s">
         <v>1111</v>
@@ -70441,10 +69895,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="D3032" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70458,10 +69912,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="D3033" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70475,10 +69929,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="D3034" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70492,10 +69946,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="D3035" t="s">
-        <v>4921</v>
+        <v>5831</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70509,10 +69963,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="D3036" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70526,10 +69980,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="D3037" t="s">
-        <v>2376</v>
+        <v>5835</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70543,10 +69997,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="D3038" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70560,10 +70014,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="D3039" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70577,10 +70031,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="D3040" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70594,10 +70048,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="D3041" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70611,10 +70065,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="D3042" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70628,10 +70082,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="D3043" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70645,10 +70099,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="D3044" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70662,10 +70116,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="D3045" t="s">
-        <v>5848</v>
+        <v>5851</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70679,10 +70133,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5849</v>
+        <v>5852</v>
       </c>
       <c r="D3046" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70696,10 +70150,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="D3047" t="s">
-        <v>5852</v>
+        <v>5855</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70713,10 +70167,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5853</v>
+        <v>5856</v>
       </c>
       <c r="D3048" t="s">
-        <v>5854</v>
+        <v>5857</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70730,10 +70184,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
       <c r="D3049" t="s">
-        <v>5856</v>
+        <v>5859</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70747,10 +70201,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5857</v>
+        <v>5860</v>
       </c>
       <c r="D3050" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70764,10 +70218,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
       <c r="D3051" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70781,10 +70235,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
       <c r="D3052" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70798,10 +70252,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="D3053" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70815,10 +70269,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="D3054" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70832,10 +70286,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
       <c r="D3055" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70849,10 +70303,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="D3056" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70866,10 +70320,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="D3057" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70883,10 +70337,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D3058" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70900,10 +70354,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="D3059" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70917,10 +70371,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
       <c r="D3060" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70934,10 +70388,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="D3061" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70948,13 +70402,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
       <c r="C3062" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
       <c r="D3062" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70968,10 +70422,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
       <c r="D3063" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70985,10 +70439,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
       <c r="D3064" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71002,10 +70456,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
       <c r="D3065" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71019,10 +70473,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
       <c r="D3066" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71036,10 +70490,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
       <c r="D3067" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71053,10 +70507,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
       <c r="D3068" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71070,10 +70524,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="D3069" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71087,10 +70541,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="D3070" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71104,10 +70558,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
       <c r="D3071" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71121,10 +70575,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
       <c r="D3072" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71138,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="D3073" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71155,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="D3074" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71172,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D3075" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71189,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="D3076" t="s">
-        <v>5911</v>
+        <v>5912</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71206,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5912</v>
+        <v>5913</v>
       </c>
       <c r="D3077" t="s">
-        <v>5913</v>
+        <v>5914</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71223,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5914</v>
+        <v>5915</v>
       </c>
       <c r="D3078" t="s">
-        <v>5915</v>
+        <v>2124</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71583,7 +71037,7 @@
         <v>5956</v>
       </c>
       <c r="D3099" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71597,10 +71051,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D3100" t="s">
-        <v>5957</v>
+        <v>5959</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71614,10 +71068,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5958</v>
+        <v>5960</v>
       </c>
       <c r="D3101" t="s">
-        <v>5958</v>
+        <v>5961</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71631,10 +71085,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5959</v>
+        <v>5962</v>
       </c>
       <c r="D3102" t="s">
-        <v>5959</v>
+        <v>5963</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71648,10 +71102,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5960</v>
+        <v>5964</v>
       </c>
       <c r="D3103" t="s">
-        <v>5960</v>
+        <v>5965</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71665,10 +71119,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5961</v>
+        <v>5966</v>
       </c>
       <c r="D3104" t="s">
-        <v>5962</v>
+        <v>5967</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71682,10 +71136,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5963</v>
+        <v>5968</v>
       </c>
       <c r="D3105" t="s">
-        <v>5964</v>
+        <v>5969</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71699,10 +71153,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5965</v>
+        <v>5970</v>
       </c>
       <c r="D3106" t="s">
-        <v>5966</v>
+        <v>5971</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71716,10 +71170,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5967</v>
+        <v>5972</v>
       </c>
       <c r="D3107" t="s">
-        <v>5968</v>
+        <v>5973</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71733,10 +71187,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5969</v>
+        <v>5974</v>
       </c>
       <c r="D3108" t="s">
-        <v>5970</v>
+        <v>5975</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71749,11 +71203,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5972</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71766,11 +71220,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5977</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71784,10 +71238,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5973</v>
+        <v>5978</v>
       </c>
       <c r="D3111" t="s">
-        <v>5973</v>
+        <v>5979</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71801,10 +71255,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5974</v>
+        <v>5980</v>
       </c>
       <c r="D3112" t="s">
-        <v>5974</v>
+        <v>5981</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71818,10 +71272,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5975</v>
+        <v>5982</v>
       </c>
       <c r="D3113" t="s">
-        <v>5976</v>
+        <v>5983</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71835,10 +71289,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5977</v>
+        <v>5984</v>
       </c>
       <c r="D3114" t="s">
-        <v>5978</v>
+        <v>5985</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71852,10 +71306,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5979</v>
+        <v>5986</v>
       </c>
       <c r="D3115" t="s">
-        <v>5980</v>
+        <v>5987</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71869,10 +71323,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5981</v>
+        <v>5988</v>
       </c>
       <c r="D3116" t="s">
-        <v>5982</v>
+        <v>5989</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71886,10 +71340,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5983</v>
+        <v>5990</v>
       </c>
       <c r="D3117" t="s">
-        <v>5984</v>
+        <v>5991</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71903,10 +71357,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5985</v>
+        <v>5992</v>
       </c>
       <c r="D3118" t="s">
-        <v>5986</v>
+        <v>5993</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71920,1678 +71374,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5987</v>
+        <v>5994</v>
       </c>
       <c r="D3119" t="s">
-        <v>5988</v>
+        <v>5995</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2705</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6058</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5881</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4326</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2216</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
